--- a/Code/Results/Cases/Case_2_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_242/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.28799026664592</v>
+        <v>1.156477115925327</v>
       </c>
       <c r="C2">
-        <v>1.342563359557232</v>
+        <v>0.4295477836434998</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1346021006650311</v>
+        <v>0.06976766101828602</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007677656448008954</v>
+        <v>0.002437069365432623</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8862843453235385</v>
+        <v>0.8319555317873011</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.215005280554891</v>
+        <v>0.4495498745744158</v>
       </c>
       <c r="N2">
-        <v>0.7326017134273002</v>
+        <v>1.319102473191649</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.828101267197667</v>
+        <v>1.036782586654283</v>
       </c>
       <c r="C3">
-        <v>1.151132733975942</v>
+        <v>0.3795697224868491</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1164984473493895</v>
+        <v>0.06565594451598145</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007773103938087094</v>
+        <v>0.002442718695768786</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8066136833283082</v>
+        <v>0.8181381695428556</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.044321988171617</v>
+        <v>0.4063453082006632</v>
       </c>
       <c r="N3">
-        <v>0.7725256300855605</v>
+        <v>1.334082195588863</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.550904371520687</v>
+        <v>0.9638022806955746</v>
       </c>
       <c r="C4">
-        <v>1.036232422298326</v>
+        <v>0.3490538824271709</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1057091188100934</v>
+        <v>0.06318180856439071</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007832958314705983</v>
+        <v>0.002446364628317675</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7605641445866951</v>
+        <v>0.8102741738912158</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9417982016790702</v>
+        <v>0.3800611554198738</v>
       </c>
       <c r="N4">
-        <v>0.7990038582223065</v>
+        <v>1.34386441127991</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.439044425977158</v>
+        <v>0.9341884511616172</v>
       </c>
       <c r="C5">
-        <v>0.9899704861949772</v>
+        <v>0.3366597044183948</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1013832695781929</v>
+        <v>0.06218606742718435</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007857689081819833</v>
+        <v>0.002447895105149153</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7424413071535696</v>
+        <v>0.8072239722711529</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9005058753798352</v>
+        <v>0.3694100898623063</v>
       </c>
       <c r="N5">
-        <v>0.8102538786176439</v>
+        <v>1.347996988388722</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.420531090759596</v>
+        <v>0.9292786448631887</v>
       </c>
       <c r="C6">
-        <v>0.9823197989605319</v>
+        <v>0.3346041042978243</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1006689417575934</v>
+        <v>0.0620214738142586</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.000786181681753856</v>
+        <v>0.002448151946080723</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7394686924857936</v>
+        <v>0.8067267744955728</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8936763905540346</v>
+        <v>0.3676450705304433</v>
       </c>
       <c r="N6">
-        <v>0.8121487823989568</v>
+        <v>1.348692010428877</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.549391587099819</v>
+        <v>0.9634023905908862</v>
       </c>
       <c r="C7">
-        <v>1.035606374763972</v>
+        <v>0.3488865653177413</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1056505058160155</v>
+        <v>0.06316832934854943</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0007833290436228201</v>
+        <v>0.002446385087526599</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7603172294898002</v>
+        <v>0.8102324143754771</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9412394539910665</v>
+        <v>0.3799172704627125</v>
       </c>
       <c r="N7">
-        <v>0.7991537602651206</v>
+        <v>1.343919553512222</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.128217966357852</v>
+        <v>1.115098394762697</v>
       </c>
       <c r="C8">
-        <v>1.27594507367985</v>
+        <v>0.4122788374519928</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1282851097296884</v>
+        <v>0.06833934100840011</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813905</v>
       </c>
       <c r="G8">
-        <v>0.0007710323619546151</v>
+        <v>0.002438980572610739</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8581686345973267</v>
+        <v>0.8270617616444156</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.155626882284878</v>
+        <v>0.4346015617024577</v>
       </c>
       <c r="N8">
-        <v>0.7459380085870606</v>
+        <v>1.324145689255879</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.31473073257547</v>
+        <v>1.416778345419914</v>
       </c>
       <c r="C9">
-        <v>1.773475860612905</v>
+        <v>0.5380301077658487</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1758365560425759</v>
+        <v>0.0788899659015172</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0007477796147740396</v>
+        <v>0.002425858901975469</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.076841978719969</v>
+        <v>0.8650510743996165</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.598497233441464</v>
+        <v>0.543836105923134</v>
       </c>
       <c r="N9">
-        <v>0.6589192165641435</v>
+        <v>1.290041591060351</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.23457786784553</v>
+        <v>1.641200245777213</v>
       </c>
       <c r="C10">
-        <v>2.163591045979445</v>
+        <v>0.6314219508899441</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2136354659787827</v>
+        <v>0.08690612312955892</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007310111823738346</v>
+        <v>0.00241706031992454</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.260334249319854</v>
+        <v>0.8961010096746236</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.944684995690039</v>
+        <v>0.6254092015546462</v>
       </c>
       <c r="N10">
-        <v>0.6083810441688513</v>
+        <v>1.267879928230911</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.668028932325626</v>
+        <v>1.743947260240589</v>
       </c>
       <c r="C11">
-        <v>2.34874506685594</v>
+        <v>0.6741539053582528</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2317071710842598</v>
+        <v>0.09061356848916802</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007233947998521538</v>
+        <v>0.002413238137418899</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.350532013315018</v>
+        <v>0.9109299847174555</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.108628708782433</v>
+        <v>0.6628276418996251</v>
       </c>
       <c r="N11">
-        <v>0.5890697558325257</v>
+        <v>1.258436679861369</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.834781850530874</v>
+        <v>1.782952809628057</v>
       </c>
       <c r="C12">
-        <v>2.420201770478741</v>
+        <v>0.69037310133956</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2387023669620092</v>
+        <v>0.09202648310098738</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007205066744825538</v>
+        <v>0.002411816532501682</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.385833519262022</v>
+        <v>0.9166483334424527</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.171834915606539</v>
+        <v>0.6770433570585652</v>
       </c>
       <c r="N12">
-        <v>0.5823649192610105</v>
+        <v>1.254953419313459</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.798744213025145</v>
+        <v>1.774547880907335</v>
       </c>
       <c r="C13">
-        <v>2.404748320934345</v>
+        <v>0.686878306830863</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2371886131425143</v>
+        <v>0.09172178324661218</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007211289609200262</v>
+        <v>0.002412121556698009</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.378176576256081</v>
+        <v>0.9154121796199632</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.158168840156279</v>
+        <v>0.6739796707122565</v>
       </c>
       <c r="N13">
-        <v>0.5837804768246713</v>
+        <v>1.255699464455688</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.681692497306358</v>
+        <v>1.747154298519376</v>
       </c>
       <c r="C14">
-        <v>2.354595426191736</v>
+        <v>0.675487504953594</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2322794629559652</v>
+        <v>0.09072962838283161</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007231573073711127</v>
+        <v>0.002413120665434212</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.35341219574137</v>
+        <v>0.9113983640067715</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.113804946564329</v>
+        <v>0.6639962433113027</v>
       </c>
       <c r="N14">
-        <v>0.5885054579917295</v>
+        <v>1.258148246902131</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.610350322743159</v>
+        <v>1.730387726923198</v>
       </c>
       <c r="C15">
-        <v>2.324057987377387</v>
+        <v>0.668515255774139</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2292930831301447</v>
+        <v>0.09012308209408815</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007243990274585154</v>
+        <v>0.002413736000032439</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.338398315268677</v>
+        <v>0.9089532416824397</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.086783579709675</v>
+        <v>0.6578871634081906</v>
       </c>
       <c r="N15">
-        <v>0.5914814002811397</v>
+        <v>1.259660295720735</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.20659005729766</v>
+        <v>1.634498957983794</v>
       </c>
       <c r="C16">
-        <v>2.151664849045289</v>
+        <v>0.6286344630266285</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2124741801268826</v>
+        <v>0.08666507738066542</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007315087048943543</v>
+        <v>0.002417313723517896</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.254589512869231</v>
+        <v>0.8951462141992863</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.934116822301803</v>
+        <v>0.6229701947742825</v>
       </c>
       <c r="N16">
-        <v>0.6097235424469858</v>
+        <v>1.268509987298849</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.963040889135584</v>
+        <v>1.575844599763002</v>
       </c>
       <c r="C17">
-        <v>2.048032559375827</v>
+        <v>0.6042336558546708</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2023978396171486</v>
+        <v>0.0845594556157252</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007358695258083428</v>
+        <v>0.002419554616135941</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.20501578262899</v>
+        <v>0.8868575968340338</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.842244100692938</v>
+        <v>0.6016303495644451</v>
       </c>
       <c r="N17">
-        <v>0.6219086579791835</v>
+        <v>1.274103095486616</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.824338997839732</v>
+        <v>1.542169755060854</v>
       </c>
       <c r="C18">
-        <v>1.989133278696102</v>
+        <v>0.5902221383930737</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1966829414581852</v>
+        <v>0.08335407137427353</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007383792409412226</v>
+        <v>0.002420860501774911</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.177123076318551</v>
+        <v>0.8821563847635758</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.78999601313194</v>
+        <v>0.5893853612398061</v>
       </c>
       <c r="N18">
-        <v>0.6292580181848706</v>
+        <v>1.277380118236316</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.777601474314906</v>
+        <v>1.530778516183148</v>
       </c>
       <c r="C19">
-        <v>1.969305903240695</v>
+        <v>0.585482002315473</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1947611304976391</v>
+        <v>0.08294692323492114</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.000739229399612356</v>
+        <v>0.00242130557405931</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.167780761194692</v>
+        <v>0.8805759512397771</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.772402435117527</v>
+        <v>0.585244375076087</v>
       </c>
       <c r="N19">
-        <v>0.6318027339836547</v>
+        <v>1.278499941632781</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.988821112485141</v>
+        <v>1.582082059670711</v>
       </c>
       <c r="C20">
-        <v>2.058989607151432</v>
+        <v>0.6068287503193801</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2034619540705194</v>
+        <v>0.0847830096140072</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0007354051929131045</v>
+        <v>0.002419314312710732</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.210227546582701</v>
+        <v>0.8877330727319048</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.851961255826183</v>
+        <v>0.603898987113169</v>
       </c>
       <c r="N20">
-        <v>0.6205757318251912</v>
+        <v>1.273501481648488</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.715998431630624</v>
+        <v>1.755197786938993</v>
       </c>
       <c r="C21">
-        <v>2.369287995633954</v>
+        <v>0.6788322253649994</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2337170502278525</v>
+        <v>0.09102080256211309</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007225616905093308</v>
+        <v>0.002412826504876744</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.360653424913679</v>
+        <v>0.9125745117824522</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.126803455521269</v>
+        <v>0.6669273527724755</v>
       </c>
       <c r="N21">
-        <v>0.5871004173211816</v>
+        <v>1.257426457081934</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.206763242965962</v>
+        <v>1.868908626578843</v>
       </c>
       <c r="C22">
-        <v>2.580056611436873</v>
+        <v>0.7261103486205798</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2543910359150843</v>
+        <v>0.0951500471636777</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007141412193963672</v>
+        <v>0.002408736495020099</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.465749812269834</v>
+        <v>0.9294106227636547</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.313099290552316</v>
+        <v>0.7083898402175066</v>
       </c>
       <c r="N22">
-        <v>0.5688134478711788</v>
+        <v>1.24746122024883</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.943240673257378</v>
+        <v>1.808165841268249</v>
       </c>
       <c r="C23">
-        <v>2.466745933081768</v>
+        <v>0.7008563739688611</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2432647606429583</v>
+        <v>0.09294131050838672</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007186399428117943</v>
+        <v>0.002410905724450796</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.40896953296668</v>
+        <v>0.9203693410757978</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.212985313394256</v>
+        <v>0.686235331659276</v>
       </c>
       <c r="N23">
-        <v>0.5782149817426756</v>
+        <v>1.252730070970173</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.97716180229969</v>
+        <v>1.579261959980954</v>
       </c>
       <c r="C24">
-        <v>2.054033824171086</v>
+        <v>0.6056554558310836</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2029806264649423</v>
+        <v>0.0846819247789341</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007356151093043263</v>
+        <v>0.002419422899122003</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.207869427702462</v>
+        <v>0.8873370707829196</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.847566366439494</v>
+        <v>0.6028732627677016</v>
       </c>
       <c r="N24">
-        <v>0.6211772821230639</v>
+        <v>1.273773279867783</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.986655836155364</v>
+        <v>1.334693862315419</v>
       </c>
       <c r="C25">
-        <v>1.635262534180185</v>
+        <v>0.5038441710153734</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1625457227058433</v>
+        <v>0.07599033388886767</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007539977902383705</v>
+        <v>0.002429260042435939</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.014202675287365</v>
+        <v>0.854229916618138</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.475612234757932</v>
+        <v>0.5140610463411832</v>
       </c>
       <c r="N25">
-        <v>0.6803377951584366</v>
+        <v>1.298762715148428</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_242/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.156477115925327</v>
+        <v>3.287990266646091</v>
       </c>
       <c r="C2">
-        <v>0.4295477836434998</v>
+        <v>1.342563359557403</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06976766101828602</v>
+        <v>0.1346021006650311</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002437069365432623</v>
+        <v>0.0007677656448571638</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8319555317873011</v>
+        <v>0.8862843453235456</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4495498745744158</v>
+        <v>1.215005280554905</v>
       </c>
       <c r="N2">
-        <v>1.319102473191649</v>
+        <v>0.7326017134272931</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.036782586654283</v>
+        <v>2.828101267197553</v>
       </c>
       <c r="C3">
-        <v>0.3795697224868491</v>
+        <v>1.151132733975658</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06565594451598145</v>
+        <v>0.116498447349386</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002442718695768786</v>
+        <v>0.000777310393805386</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8181381695428556</v>
+        <v>0.8066136833283082</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4063453082006632</v>
+        <v>1.04432198817161</v>
       </c>
       <c r="N3">
-        <v>1.334082195588863</v>
+        <v>0.772525630085596</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9638022806955746</v>
+        <v>2.55090437152063</v>
       </c>
       <c r="C4">
-        <v>0.3490538824271709</v>
+        <v>1.036232422298383</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06318180856439071</v>
+        <v>0.1057091188100685</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002446364628317675</v>
+        <v>0.0007832958314979506</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8102741738912158</v>
+        <v>0.7605641445867022</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3800611554198738</v>
+        <v>0.9417982016790702</v>
       </c>
       <c r="N4">
-        <v>1.34386441127991</v>
+        <v>0.7990038582223633</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9341884511616172</v>
+        <v>2.439044425977158</v>
       </c>
       <c r="C5">
-        <v>0.3366597044183948</v>
+        <v>0.9899704861951477</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06218606742718435</v>
+        <v>0.1013832695781964</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002447895105149153</v>
+        <v>0.0007857689081526956</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8072239722711529</v>
+        <v>0.7424413071535696</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3694100898623063</v>
+        <v>0.9005058753798352</v>
       </c>
       <c r="N5">
-        <v>1.347996988388722</v>
+        <v>0.8102538786176368</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9292786448631887</v>
+        <v>2.420531090759766</v>
       </c>
       <c r="C6">
-        <v>0.3346041042978243</v>
+        <v>0.982319798960674</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0620214738142586</v>
+        <v>0.1006689417576219</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002448151946080723</v>
+        <v>0.0007861816818000083</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8067267744955728</v>
+        <v>0.7394686924857936</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3676450705304433</v>
+        <v>0.8936763905540275</v>
       </c>
       <c r="N6">
-        <v>1.348692010428877</v>
+        <v>0.8121487823990137</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9634023905908862</v>
+        <v>2.549391587099933</v>
       </c>
       <c r="C7">
-        <v>0.3488865653177413</v>
+        <v>1.035606374763972</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06316832934854943</v>
+        <v>0.1056505058160226</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002446385087526599</v>
+        <v>0.0007833290435477203</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8102324143754771</v>
+        <v>0.7603172294898144</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3799172704627125</v>
+        <v>0.9412394539910665</v>
       </c>
       <c r="N7">
-        <v>1.343919553512222</v>
+        <v>0.799153760265142</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.115098394762697</v>
+        <v>3.128217966357965</v>
       </c>
       <c r="C8">
-        <v>0.4122788374519928</v>
+        <v>1.27594507367985</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06833934100840011</v>
+        <v>0.12828510972966</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813905</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002438980572610739</v>
+        <v>0.0007710323618969117</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8270617616444156</v>
+        <v>0.8581686345973338</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4346015617024577</v>
+        <v>1.155626882284871</v>
       </c>
       <c r="N8">
-        <v>1.324145689255879</v>
+        <v>0.7459380085870535</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.416778345419914</v>
+        <v>4.314730732575526</v>
       </c>
       <c r="C9">
-        <v>0.5380301077658487</v>
+        <v>1.773475860613019</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0788899659015172</v>
+        <v>0.1758365560425617</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002425858901975469</v>
+        <v>0.0007477796148248093</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8650510743996165</v>
+        <v>1.076841978719997</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.543836105923134</v>
+        <v>1.598497233441492</v>
       </c>
       <c r="N9">
-        <v>1.290041591060351</v>
+        <v>0.658919216564108</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.641200245777213</v>
+        <v>5.234577867845474</v>
       </c>
       <c r="C10">
-        <v>0.6314219508899441</v>
+        <v>2.163591045979217</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08690612312955892</v>
+        <v>0.2136354659787614</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.00241706031992454</v>
+        <v>0.0007310111824343172</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8961010096746236</v>
+        <v>1.260334249319868</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6254092015546462</v>
+        <v>1.944684995690054</v>
       </c>
       <c r="N10">
-        <v>1.267879928230911</v>
+        <v>0.6083810441688371</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.743947260240589</v>
+        <v>5.66802893232574</v>
       </c>
       <c r="C11">
-        <v>0.6741539053582528</v>
+        <v>2.348745066855486</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09061356848916802</v>
+        <v>0.2317071710843308</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002413238137418899</v>
+        <v>0.0007233947998044332</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9109299847174555</v>
+        <v>1.350532013315018</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6628276418996251</v>
+        <v>2.108628708782405</v>
       </c>
       <c r="N11">
-        <v>1.258436679861369</v>
+        <v>0.5890697558325115</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.782952809628057</v>
+        <v>5.834781850531044</v>
       </c>
       <c r="C12">
-        <v>0.69037310133956</v>
+        <v>2.420201770478911</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09202648310098738</v>
+        <v>0.2387023669620021</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002411816532501682</v>
+        <v>0.000720506674414164</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9166483334424527</v>
+        <v>1.38583351926205</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6770433570585652</v>
+        <v>2.171834915606553</v>
       </c>
       <c r="N12">
-        <v>1.254953419313459</v>
+        <v>0.5823649192610674</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.774547880907335</v>
+        <v>5.798744213025145</v>
       </c>
       <c r="C13">
-        <v>0.686878306830863</v>
+        <v>2.404748320934914</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09172178324661218</v>
+        <v>0.2371886131425782</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002412121556698009</v>
+        <v>0.0007211289608775099</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9154121796199632</v>
+        <v>1.378176576256038</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6739796707122565</v>
+        <v>2.158168840156264</v>
       </c>
       <c r="N13">
-        <v>1.255699464455688</v>
+        <v>0.5837804768246286</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.747154298519376</v>
+        <v>5.681692497306472</v>
       </c>
       <c r="C14">
-        <v>0.675487504953594</v>
+        <v>2.354595426191793</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09072962838283161</v>
+        <v>0.2322794629559723</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002413120665434212</v>
+        <v>0.0007231573074253829</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9113983640067715</v>
+        <v>1.353412195741384</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6639962433113027</v>
+        <v>2.113804946564329</v>
       </c>
       <c r="N14">
-        <v>1.258148246902131</v>
+        <v>0.5885054579917437</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.730387726923198</v>
+        <v>5.610350322743102</v>
       </c>
       <c r="C15">
-        <v>0.668515255774139</v>
+        <v>2.324057987377842</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09012308209408815</v>
+        <v>0.2292930831301447</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002413736000032439</v>
+        <v>0.0007243990274024075</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9089532416824397</v>
+        <v>1.338398315268691</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6578871634081906</v>
+        <v>2.086783579709675</v>
       </c>
       <c r="N15">
-        <v>1.259660295720735</v>
+        <v>0.5914814002810829</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.634498957983794</v>
+        <v>5.20659005729766</v>
       </c>
       <c r="C16">
-        <v>0.6286344630266285</v>
+        <v>2.151664849045289</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08666507738066542</v>
+        <v>0.212474180126911</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002417313723517896</v>
+        <v>0.0007315087048951261</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8951462141992863</v>
+        <v>1.254589512869259</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6229701947742825</v>
+        <v>1.934116822301746</v>
       </c>
       <c r="N16">
-        <v>1.268509987298849</v>
+        <v>0.6097235424469289</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.575844599763002</v>
+        <v>4.963040889135755</v>
       </c>
       <c r="C17">
-        <v>0.6042336558546708</v>
+        <v>2.048032559375599</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0845594556157252</v>
+        <v>0.20239783961717</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002419554616135941</v>
+        <v>0.0007358695256933402</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8868575968340338</v>
+        <v>1.205015782628976</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6016303495644451</v>
+        <v>1.842244100692952</v>
       </c>
       <c r="N17">
-        <v>1.274103095486616</v>
+        <v>0.6219086579791835</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.542169755060854</v>
+        <v>4.824338997839902</v>
       </c>
       <c r="C18">
-        <v>0.5902221383930737</v>
+        <v>1.989133278695988</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08335407137427353</v>
+        <v>0.1966829414582136</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002420860501774911</v>
+        <v>0.0007383792409999534</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8821563847635758</v>
+        <v>1.177123076318566</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5893853612398061</v>
+        <v>1.789996013131898</v>
       </c>
       <c r="N18">
-        <v>1.277380118236316</v>
+        <v>0.6292580181848493</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.530778516183148</v>
+        <v>4.777601474315077</v>
       </c>
       <c r="C19">
-        <v>0.585482002315473</v>
+        <v>1.969305903240354</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08294692323492114</v>
+        <v>0.1947611304976391</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.00242130557405931</v>
+        <v>0.0007392293994412706</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8805759512397771</v>
+        <v>1.167780761194692</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.585244375076087</v>
+        <v>1.772402435117513</v>
       </c>
       <c r="N19">
-        <v>1.278499941632781</v>
+        <v>0.6318027339836547</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.582082059670711</v>
+        <v>4.988821112485141</v>
       </c>
       <c r="C20">
-        <v>0.6068287503193801</v>
+        <v>2.058989607151318</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0847830096140072</v>
+        <v>0.2034619540705052</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002419314312710732</v>
+        <v>0.0007354051928583208</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8877330727319048</v>
+        <v>1.210227546582715</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.603898987113169</v>
+        <v>1.851961255826211</v>
       </c>
       <c r="N20">
-        <v>1.273501481648488</v>
+        <v>0.6205757318251983</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.755197786938993</v>
+        <v>5.715998431630737</v>
       </c>
       <c r="C21">
-        <v>0.6788322253649994</v>
+        <v>2.369287995633897</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09102080256211309</v>
+        <v>0.2337170502279236</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002412826504876744</v>
+        <v>0.0007225616904450449</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9125745117824522</v>
+        <v>1.360653424913707</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6669273527724755</v>
+        <v>2.126803455521241</v>
       </c>
       <c r="N21">
-        <v>1.257426457081934</v>
+        <v>0.5871004173212668</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.868908626578843</v>
+        <v>6.206763242965962</v>
       </c>
       <c r="C22">
-        <v>0.7261103486205798</v>
+        <v>2.580056611437101</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0951500471636777</v>
+        <v>0.2543910359150914</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002408736495020099</v>
+        <v>0.0007141412193262181</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9294106227636547</v>
+        <v>1.465749812269848</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7083898402175066</v>
+        <v>2.313099290552344</v>
       </c>
       <c r="N22">
-        <v>1.24746122024883</v>
+        <v>0.5688134478712072</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.808165841268249</v>
+        <v>5.943240673257492</v>
       </c>
       <c r="C23">
-        <v>0.7008563739688611</v>
+        <v>2.466745933081825</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09294131050838672</v>
+        <v>0.2432647606429583</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002410905724450796</v>
+        <v>0.0007186399428656979</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9203693410757978</v>
+        <v>1.408969532966665</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.686235331659276</v>
+        <v>2.21298531339427</v>
       </c>
       <c r="N23">
-        <v>1.252730070970173</v>
+        <v>0.5782149817427324</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.579261959980954</v>
+        <v>4.977161802299634</v>
       </c>
       <c r="C24">
-        <v>0.6056554558310836</v>
+        <v>2.054033824171029</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0846819247789341</v>
+        <v>0.2029806264649281</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002419422899122003</v>
+        <v>0.0007356151092413627</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8873370707829196</v>
+        <v>1.207869427702462</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6028732627677016</v>
+        <v>1.847566366439509</v>
       </c>
       <c r="N24">
-        <v>1.273773279867783</v>
+        <v>0.6211772821229857</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.334693862315419</v>
+        <v>3.986655836155251</v>
       </c>
       <c r="C25">
-        <v>0.5038441710153734</v>
+        <v>1.635262534180072</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07599033388886767</v>
+        <v>0.1625457227058789</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.002429260042435939</v>
+        <v>0.0007539977902951689</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.854229916618138</v>
+        <v>1.014202675287365</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5140610463411832</v>
+        <v>1.475612234757932</v>
       </c>
       <c r="N25">
-        <v>1.298762715148428</v>
+        <v>0.6803377951584366</v>
       </c>
       <c r="O25">
         <v>0</v>
